--- a/Product backlog_Dyeniffer.xlsx
+++ b/Product backlog_Dyeniffer.xlsx
@@ -117,9 +117,6 @@
     <t>Gerar comprovante de pagamento impresso</t>
   </si>
   <si>
-    <t>Opção de pagamento em dinheiro ou cartão</t>
-  </si>
-  <si>
     <t>Inserir valor de cada filme em exibição</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Inserção de sinopse do filme cadastrado</t>
+  </si>
+  <si>
+    <t>Opção de pagamento no cartão</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +155,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -408,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -516,12 +510,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,21 +993,21 @@
         <v>6</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="48" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="50"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
@@ -1053,21 +1041,21 @@
         <v>8</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="48" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="48" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="50"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
@@ -1149,21 +1137,21 @@
         <v>12</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="45" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="45" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="47"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1216,7 +1204,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1240,7 +1228,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1278,7 +1266,7 @@
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="7"/>
@@ -1291,48 +1279,48 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22">
-        <v>25</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="8">
+        <v>18</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="8">
+        <v>19</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="7"/>
@@ -1340,17 +1328,17 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="7"/>
@@ -1358,17 +1346,17 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="7"/>
@@ -1376,17 +1364,17 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="7"/>
@@ -1394,17 +1382,17 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="7"/>
@@ -1412,55 +1400,55 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8">
-        <v>38</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22">
+        <v>25</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8">
-        <v>39</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="A30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="11">
-        <v>40</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="8">
+        <v>26</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -1472,23 +1460,275 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
+        <v>27</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8">
+        <v>28</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8">
+        <v>29</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8">
+        <v>30</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8">
+        <v>31</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8">
+        <v>32</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8">
+        <v>33</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8">
+        <v>34</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8">
+        <v>35</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8">
+        <v>36</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8">
+        <v>37</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8">
+        <v>38</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8">
+        <v>39</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="11">
+        <v>40</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="210">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D3:N3"/>
@@ -1556,12 +1796,26 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
@@ -1570,65 +1824,121 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="F25:J25"/>
     <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
